--- a/周数据/《实施上线数据统计表》-顾鹏.xlsx
+++ b/周数据/《实施上线数据统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7530" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -323,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -463,7 +463,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,21 +561,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,40 +575,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,52 +599,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +687,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +753,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,115 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,6 +1323,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1347,6 +1386,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1362,61 +1412,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,10 +1428,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,19 +1440,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,112 +1461,112 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16168,8 +16168,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -16191,7 +16191,7 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="29" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>49</v>
       </c>
       <c r="N13" s="42">
-        <v>18581409416</v>
+        <v>15005145205</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>44</v>
@@ -22616,7 +22616,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《实施上线数据统计表》-顾鹏.xlsx
+++ b/周数据/《实施上线数据统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>第20周</t>
+  </si>
+  <si>
+    <t>第21周</t>
   </si>
   <si>
     <t>周次</t>
@@ -324,9 +327,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -463,58 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +474,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -530,37 +490,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,10 +504,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,8 +558,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +726,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,121 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,45 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1386,17 +1350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1412,11 +1365,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,19 +1443,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,112 +1464,112 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2255,8 +2258,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3120,9 +3123,15 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="70"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="79">
+        <v>0</v>
+      </c>
+      <c r="D37" s="80">
+        <v>0</v>
+      </c>
       <c r="E37" s="81"/>
       <c r="F37" s="82">
         <f t="shared" si="4"/>
@@ -16168,7 +16177,7 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -16191,98 +16200,98 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="28.5" spans="1:15">
+    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="33">
         <v>43214</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="34">
         <v>76157881</v>
       </c>
       <c r="H2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1">
         <v>17551053451</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1">
         <v>15295502912</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16291,43 +16300,43 @@
         <v>43214</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="34">
         <v>76152273</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1">
         <v>17551053451</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="35">
         <v>18115881163</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16336,43 +16345,43 @@
         <v>43215</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="35">
         <v>76159001</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1">
         <v>17551053451</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1">
         <v>13914716051</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:15">
@@ -16381,43 +16390,43 @@
         <v>43217</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1">
         <v>76160709</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1">
         <v>17551053451</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="35">
         <v>18888712850</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:15">
@@ -16426,43 +16435,43 @@
         <v>43217</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>76150818</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1">
         <v>17551053451</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1">
         <v>18236939173</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:15">
@@ -16471,43 +16480,43 @@
         <v>43217</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>76150791</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1">
         <v>17551053451</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="35">
         <v>13915856228</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16516,43 +16525,43 @@
         <v>43217</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1">
         <v>76162220</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="1">
         <v>17551053451</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="1">
         <v>15951658749</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16561,43 +16570,43 @@
         <v>43217</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>76162185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
         <v>17551053451</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1">
         <v>13814527023</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16606,43 +16615,43 @@
         <v>43217</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1">
         <v>76163609</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1">
         <v>17551053451</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="34">
         <v>18921716760</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16653,43 +16662,43 @@
         <v>43231</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1">
         <v>76161758</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1">
         <v>17551053451</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="42">
         <v>13347934279</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16698,43 +16707,43 @@
         <v>43231</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>76162658</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1">
         <v>17551053451</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N12" s="42">
         <v>18951072399</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16743,43 +16752,43 @@
         <v>43231</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>76159316</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1">
         <v>17551053451</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N13" s="42">
         <v>15005145205</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -16790,43 +16799,43 @@
         <v>43235</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1">
         <v>76167562</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14" s="1">
         <v>17551053451</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" s="1">
         <v>18751852781</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -16835,43 +16844,43 @@
         <v>43235</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1">
         <v>76166898</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="1">
         <v>17551053451</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N15" s="1">
         <v>15356805008</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -21767,22 +21776,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22616,8 +22625,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -22634,16 +22643,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
@@ -22651,31 +22660,31 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9">
         <v>43191</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="13">
         <v>43195</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:4">

--- a/周数据/《实施上线数据统计表》-顾鹏.xlsx
+++ b/周数据/《实施上线数据统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>第22周</t>
+  </si>
+  <si>
+    <t>06月</t>
+  </si>
+  <si>
+    <t>第23周</t>
+  </si>
+  <si>
+    <t>第24周</t>
   </si>
   <si>
     <t>周次</t>
@@ -350,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -489,6 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -498,51 +514,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -566,7 +537,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,6 +552,29 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -588,22 +589,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -620,14 +605,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,7 +723,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,67 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,13 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,41 +1374,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,20 +1402,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,6 +1447,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1455,10 +1464,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,133 +1476,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2286,7 +2295,7 @@
   <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3257,11 +3266,21 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="71"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
+      <c r="A41" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="100">
+        <v>0</v>
+      </c>
+      <c r="D41" s="101">
+        <v>0</v>
+      </c>
+      <c r="E41" s="102">
+        <v>0</v>
+      </c>
       <c r="F41" s="76">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3281,25 +3300,33 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="71"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
+      <c r="B42" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="80">
+        <v>2</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0</v>
+      </c>
+      <c r="E42" s="82">
+        <v>0</v>
+      </c>
       <c r="F42" s="83">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="85" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="107" t="e">
+      <c r="I42" s="107">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -16214,7 +16241,7 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -16239,96 +16266,96 @@
   <sheetData>
     <row r="1" s="29" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="33">
         <v>43214</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="34">
         <v>76157881</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1">
         <v>17551053451</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1">
         <v>15295502912</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16337,43 +16364,43 @@
         <v>43214</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="34">
         <v>76152273</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1">
         <v>17551053451</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N3" s="35">
         <v>18115881163</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16382,43 +16409,43 @@
         <v>43215</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="35">
         <v>76159001</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1">
         <v>17551053451</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1">
         <v>13914716051</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:15">
@@ -16427,43 +16454,43 @@
         <v>43217</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>76160709</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1">
         <v>17551053451</v>
       </c>
       <c r="L5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>51</v>
       </c>
       <c r="N5" s="35">
         <v>18888712850</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:15">
@@ -16472,43 +16499,43 @@
         <v>43217</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>76150818</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1">
         <v>17551053451</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1">
         <v>18236939173</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:15">
@@ -16517,43 +16544,43 @@
         <v>43217</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>76150791</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1">
         <v>17551053451</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N7" s="35">
         <v>13915856228</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16562,43 +16589,43 @@
         <v>43217</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>76162220</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1">
         <v>17551053451</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1">
         <v>15951658749</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16607,43 +16634,43 @@
         <v>43217</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1">
         <v>76162185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1">
         <v>17551053451</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1">
         <v>13814527023</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16652,43 +16679,43 @@
         <v>43217</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1">
         <v>76163609</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1">
         <v>17551053451</v>
       </c>
       <c r="L10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>51</v>
       </c>
       <c r="N10" s="34">
         <v>18921716760</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16699,43 +16726,43 @@
         <v>43231</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1">
         <v>76161758</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" s="1">
         <v>17551053451</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N11" s="43">
         <v>13347934279</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16744,43 +16771,43 @@
         <v>43231</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>76162658</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1">
         <v>17551053451</v>
       </c>
       <c r="L12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>51</v>
       </c>
       <c r="N12" s="43">
         <v>18951072399</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16789,43 +16816,43 @@
         <v>43231</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
         <v>76159316</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1">
         <v>17551053451</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N13" s="43">
         <v>15005145205</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -16836,43 +16863,43 @@
         <v>43235</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1">
         <v>76167562</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1">
         <v>17551053451</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N14" s="1">
         <v>18751852781</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -16881,43 +16908,43 @@
         <v>43235</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1">
         <v>76166898</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15" s="1">
         <v>17551053451</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N15" s="1">
         <v>15356805008</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -16928,43 +16955,43 @@
         <v>43250</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>76173259</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K16" s="1">
         <v>17551053451</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N16" s="1">
         <v>15922410777</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -16973,43 +17000,43 @@
         <v>43250</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="10">
         <v>76155677</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17" s="1">
         <v>17551053451</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N17" s="1">
         <v>15922410777</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -21872,22 +21899,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22721,8 +22748,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -22739,16 +22766,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
@@ -22756,31 +22783,31 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9">
         <v>43191</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="13">
         <v>43195</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:4">
